--- a/buylink.nover.vn_v2_fix.xlsx
+++ b/buylink.nover.vn_v2_fix.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="117">
   <si>
     <t>Chuyên Mục</t>
   </si>
@@ -712,6 +712,12 @@
   </si>
   <si>
     <t>KH chỉ cung cấp 1 banner, đợi bổ sung sau</t>
+  </si>
+  <si>
+    <t>Đã fix</t>
+  </si>
+  <si>
+    <t>Đã fix theo như thiết kế</t>
   </si>
 </sst>
 </file>
@@ -1831,10 +1837,10 @@
   <dimension ref="A1:EX139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,6 +2723,9 @@
       <c r="D12" s="144" t="s">
         <v>69</v>
       </c>
+      <c r="E12" s="138" t="s">
+        <v>115</v>
+      </c>
       <c r="F12" s="124"/>
       <c r="G12" s="124"/>
       <c r="H12" s="124"/>
@@ -3046,7 +3055,9 @@
       <c r="D15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
